--- a/dinas/public/files/template/data_kepala_keluarga.xlsx
+++ b/dinas/public/files/template/data_kepala_keluarga.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\mprogram_jakarta\public\files\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\jakarta\dinas\public\files\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,10 +95,10 @@
     <t>: [b.tanggal_export]</t>
   </si>
   <si>
-    <t>RW [b.rw]</t>
-  </si>
-  <si>
     <t xml:space="preserve">REKAPITULASI PENDATAAN KETUK PINTU </t>
+  </si>
+  <si>
+    <t>RW [b.rw] [b.rt]</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="1"/>
@@ -561,7 +561,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="1"/>

--- a/dinas/public/files/template/data_kepala_keluarga.xlsx
+++ b/dinas/public/files/template/data_kepala_keluarga.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\jakarta\dinas\public\files\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\eform\dinas\public\files\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>Bidang</t>
   </si>
   <si>
-    <t>Tanggal Export</t>
-  </si>
-  <si>
     <t>[a.no;block=tbs:row]</t>
   </si>
   <si>
@@ -92,13 +89,16 @@
     <t>: BIDANG KESEHATAN</t>
   </si>
   <si>
-    <t>: [b.tanggal_export]</t>
-  </si>
-  <si>
     <t xml:space="preserve">REKAPITULASI PENDATAAN KETUK PINTU </t>
   </si>
   <si>
     <t>RW [b.rw] [b.rt]</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>: [b.bulanfilter]  [b.tahunfilter]</t>
   </si>
 </sst>
 </file>
@@ -307,6 +307,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -342,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,7 +555,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +573,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="1"/>
@@ -550,7 +584,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="1"/>
@@ -561,7 +595,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="1"/>
@@ -574,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -586,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -598,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -606,10 +640,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,25 +697,25 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/dinas/public/files/template/data_kepala_keluarga.xlsx
+++ b/dinas/public/files/template/data_kepala_keluarga.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>No.</t>
   </si>
@@ -99,6 +99,27 @@
   </si>
   <si>
     <t>: [b.bulanfilter]  [b.tahunfilter]</t>
+  </si>
+  <si>
+    <t>: [b.jumlahjiwa]</t>
+  </si>
+  <si>
+    <t>Jumlah Laki-laki</t>
+  </si>
+  <si>
+    <t>: [b.jumlahlaki]</t>
+  </si>
+  <si>
+    <t>Jumlah Perempuan</t>
+  </si>
+  <si>
+    <t>: [b.jumlahperempuan]</t>
+  </si>
+  <si>
+    <t>: [b.jumlahkk]</t>
+  </si>
+  <si>
+    <t>Jumlah Kepala Keluarga</t>
   </si>
 </sst>
 </file>
@@ -552,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,74 +668,106 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="11"/>
+      <c r="B8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D14" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F14" s="2">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>17</v>
       </c>
     </row>

--- a/dinas/public/files/template/data_kepala_keluarga.xlsx
+++ b/dinas/public/files/template/data_kepala_keluarga.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Kab./Kota</t>
   </si>
   <si>
-    <t>Bidang</t>
-  </si>
-  <si>
     <t>[a.no;block=tbs:row]</t>
   </si>
   <si>
@@ -86,15 +83,9 @@
     <t>: [b.kd_kab]</t>
   </si>
   <si>
-    <t>: BIDANG KESEHATAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">REKAPITULASI PENDATAAN KETUK PINTU </t>
   </si>
   <si>
-    <t>RW [b.rw] [b.rt]</t>
-  </si>
-  <si>
     <t>Bulan</t>
   </si>
   <si>
@@ -120,6 +111,27 @@
   </si>
   <si>
     <t>Jumlah Kepala Keluarga</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>RW / RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW </t>
+  </si>
+  <si>
+    <t>: [b.rw]  / [b.rt]</t>
+  </si>
+  <si>
+    <t>: [b.kelurahan]</t>
+  </si>
+  <si>
+    <t>: [b.kecamatan]</t>
   </si>
 </sst>
 </file>
@@ -573,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +606,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="1"/>
@@ -605,7 +617,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="1"/>
@@ -616,7 +628,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="1"/>
@@ -629,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -641,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -650,42 +662,50 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>28</v>
@@ -693,82 +713,98 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F16" s="2">
         <v>6</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
